--- a/images/lista.xlsx
+++ b/images/lista.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,23 +418,30 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,61 +515,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,56 +869,56 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="32" style="15" customWidth="1"/>
-    <col min="4" max="4" width="46" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="16"/>
+    <col min="6" max="6" width="14.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -929,33 +930,33 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -967,33 +968,33 @@
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1005,33 +1006,33 @@
       <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="E8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1043,33 +1044,33 @@
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="E10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1081,37 +1082,37 @@
       <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>128</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="E12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1123,31 +1124,31 @@
       <c r="D13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1159,31 +1160,31 @@
       <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1195,31 +1196,31 @@
       <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="E18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1231,33 +1232,33 @@
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="E19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="E20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1269,10 +1270,10 @@
       <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>128</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -1280,26 +1281,26 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1311,33 +1312,33 @@
       <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="4"/>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="E24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1349,75 +1350,75 @@
       <c r="D25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="E26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1429,31 +1430,31 @@
       <c r="D29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="E30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1465,67 +1466,67 @@
       <c r="D31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+      <c r="E31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="E32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="4"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="E34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1537,31 +1538,31 @@
       <c r="D35" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="4"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -1573,31 +1574,31 @@
       <c r="D37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="4"/>
+      <c r="E37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1609,33 +1610,33 @@
       <c r="D39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="E40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -1647,33 +1648,33 @@
       <c r="D41" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
+      <c r="E41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="11"/>
+      <c r="E42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1685,33 +1686,33 @@
       <c r="D43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="4"/>
+      <c r="E43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="E44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -1723,31 +1724,31 @@
       <c r="D45" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="4"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="E46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1759,49 +1760,49 @@
       <c r="D47" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="E47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="E48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="4"/>
+      <c r="E49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/images/lista.xlsx
+++ b/images/lista.xlsx
@@ -869,7 +869,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
